--- a/DATA_goal/Junction_Flooding_497.xlsx
+++ b/DATA_goal/Junction_Flooding_497.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,52 +655,52 @@
         <v>44828.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
@@ -709,49 +709,49 @@
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.39</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44828.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.47</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.65</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.75</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.23</v>
+        <v>32.27</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.18</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44828.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.43</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.27</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.95</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.5</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.15</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.82</v>
+        <v>38.18</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.05</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.76</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44828.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.77</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.03</v>
+        <v>30.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.46</v>
+        <v>24.57</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.8</v>
+        <v>38.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.69</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.93</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.84</v>
+        <v>158.42</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.03</v>
+        <v>30.35</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.23</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.39</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.1</v>
+        <v>10.98</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.94</v>
+        <v>19.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.71</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.32</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.46</v>
+        <v>34.55</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_497.xlsx
+++ b/DATA_goal/Junction_Flooding_497.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44828.54861111111</v>
+        <v>45178.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.29</v>
+        <v>9.686</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.74</v>
+        <v>6.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>2.907</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.83</v>
+        <v>21.429</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.42</v>
+        <v>15.753</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>7.426</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.64</v>
+        <v>21.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>12.148</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.042</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.44</v>
+        <v>6.422</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.28</v>
+        <v>8.574</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.08</v>
+        <v>9.294</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>2.529</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.07</v>
+        <v>7.895</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.87</v>
+        <v>10.528</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>7.369</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.826</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.39</v>
+        <v>112.771</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.71</v>
+        <v>21.717</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.12</v>
+        <v>7.288</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.55</v>
+        <v>13.637</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.64</v>
+        <v>7.423</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.82</v>
+        <v>1.536</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.31</v>
+        <v>12.849</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.97</v>
+        <v>6.437</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.72</v>
+        <v>5.959</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.59</v>
+        <v>6.92</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.43</v>
+        <v>9.375999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.09</v>
+        <v>2.459</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>19.236</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.19</v>
+        <v>3.642</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.45</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44828.55555555555</v>
+        <v>45178.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.03</v>
+        <v>3.593</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.18</v>
+        <v>2.541</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.234</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7.47</v>
+        <v>8.259</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.07</v>
+        <v>5.758</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.49</v>
+        <v>2.67</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.41</v>
+        <v>13.173</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.67</v>
+        <v>4.592</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.65</v>
+        <v>2.006</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.77</v>
+        <v>2.139</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.3</v>
+        <v>3.327</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.79</v>
+        <v>3.642</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.974</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.37</v>
+        <v>3.008</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.51</v>
+        <v>3.992</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.75</v>
+        <v>3.04</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>1.1</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.342</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>32.27</v>
+        <v>38.488</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.18</v>
+        <v>8.605</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.78</v>
+        <v>2.776</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.48</v>
+        <v>5.296</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.85</v>
+        <v>2.798</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.499</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.22</v>
+        <v>7.362</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.09</v>
+        <v>2.452</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.74</v>
+        <v>2.371</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.46</v>
+        <v>2.769</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.03</v>
+        <v>3.577</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.82</v>
+        <v>1.098</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.84</v>
+        <v>12.673</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.06</v>
+        <v>1.293</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.38</v>
+        <v>3.473</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44828.5625</v>
+        <v>45178.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.62</v>
+        <v>16.633</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.66</v>
+        <v>12.403</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.271</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.43</v>
+        <v>36.537</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.27</v>
+        <v>29.489</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.95</v>
+        <v>12.958</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>10.5</v>
+        <v>46.834</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.4</v>
+        <v>20.304</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.01</v>
+        <v>9.093999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.15</v>
+        <v>12.975</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.63</v>
+        <v>14.674</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.34</v>
+        <v>15.628</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.96</v>
+        <v>4.225</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.82</v>
+        <v>13.159</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.79</v>
+        <v>18.536</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.18</v>
+        <v>11.291</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.867</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.629</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.18</v>
+        <v>192.947</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>36.673</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3</v>
+        <v>12.146</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.43</v>
+        <v>24.445</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.18</v>
+        <v>12.905</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.86</v>
+        <v>1.769</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.56</v>
+        <v>23.995</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.43</v>
+        <v>10.728</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.05</v>
+        <v>9.574</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.71</v>
+        <v>11.256</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.51</v>
+        <v>15.46</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.707</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>9.76</v>
+        <v>42.554</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.36</v>
+        <v>6.726</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.7</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44828.56944444445</v>
+        <v>45178.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.77</v>
+        <v>19.55</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.3</v>
+        <v>14.63</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.53</v>
+        <v>1.18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30.35</v>
+        <v>42.83</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.57</v>
+        <v>34.87</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.92</v>
+        <v>15.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.05</v>
+        <v>59.46</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.69</v>
+        <v>23.8</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.52</v>
+        <v>10.72</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.34</v>
+        <v>15.47</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.38</v>
+        <v>17.19</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.71</v>
+        <v>18.28</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.5</v>
+        <v>4.95</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.76</v>
+        <v>15.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.93</v>
+        <v>21.85</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>13.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.67</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>158.42</v>
+        <v>227.31</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.35</v>
+        <v>43.11</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.23</v>
+        <v>14.23</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.39</v>
+        <v>28.9</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.98</v>
+        <v>15.19</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.38</v>
+        <v>29.56</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>12.57</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.71</v>
+        <v>11.15</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.32</v>
+        <v>13.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.78</v>
+        <v>18.1</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>34.55</v>
+        <v>54.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.58</v>
+        <v>7.96</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44828.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0</v>
+        <v>17.79</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_497.xlsx
+++ b/DATA_goal/Junction_Flooding_497.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,10 +468,10 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45178.50694444445</v>
+        <v>44828.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.686</v>
+        <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.9</v>
+        <v>0.735</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.907</v>
+        <v>0.124</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>21.429</v>
+        <v>4.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>15.753</v>
+        <v>1.423</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.426</v>
+        <v>0.979</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>21.228</v>
+        <v>2.643</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.148</v>
+        <v>1.329</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.042</v>
+        <v>0.541</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.422</v>
+        <v>1.443</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.574</v>
+        <v>2.279</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.294</v>
+        <v>1.076</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.529</v>
+        <v>0.423</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.895</v>
+        <v>1.072</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.528</v>
+        <v>3.872</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.369</v>
+        <v>0.514</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.826</v>
+        <v>0.001</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>112.771</v>
+        <v>14.386</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>21.717</v>
+        <v>3.712</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.288</v>
+        <v>2.121</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>13.637</v>
+        <v>1.552</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.423</v>
+        <v>1.645</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.536</v>
+        <v>1.823</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.849</v>
+        <v>2.314</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.437</v>
+        <v>0.973</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.959</v>
+        <v>0.721</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.92</v>
+        <v>1.589</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.375999999999999</v>
+        <v>1.435</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.459</v>
+        <v>2.091</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>19.236</v>
+        <v>2.771</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.642</v>
+        <v>0.187</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45178.51388888889</v>
+        <v>44828.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.593</v>
+        <v>3.034</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.541</v>
+        <v>2.183</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.234</v>
+        <v>0.185</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>8.259</v>
+        <v>7.472</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.758</v>
+        <v>5.073</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.67</v>
+        <v>2.491</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.173</v>
+        <v>7.414</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.592</v>
+        <v>3.666</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.006</v>
+        <v>1.65</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.139</v>
+        <v>2.767</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.327</v>
+        <v>3.296</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.642</v>
+        <v>2.787</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.974</v>
+        <v>0.835</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.008</v>
+        <v>2.369</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.992</v>
+        <v>4.509</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.04</v>
+        <v>1.753</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.007</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.342</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>38.488</v>
+        <v>32.273</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>8.605</v>
+        <v>7.177</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>2.776</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.296</v>
+        <v>4.482</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.798</v>
+        <v>2.854</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.499</v>
+        <v>1.075</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.362</v>
+        <v>4.221</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.452</v>
+        <v>2.093</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.371</v>
+        <v>1.742</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.769</v>
+        <v>2.463</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.577</v>
+        <v>3.031</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.098</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.673</v>
+        <v>6.843</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.293</v>
+        <v>1.06</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.473</v>
+        <v>3.383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45178.52083333334</v>
+        <v>44828.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.633</v>
+        <v>3.623</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.403</v>
+        <v>2.661</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.271</v>
+        <v>0.199</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>36.537</v>
+        <v>8.430999999999999</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>29.489</v>
+        <v>6.265</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.958</v>
+        <v>2.951</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>46.834</v>
+        <v>10.496</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.304</v>
+        <v>4.401</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.093999999999999</v>
+        <v>2.005</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.975</v>
+        <v>3.152</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.674</v>
+        <v>3.626</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.628</v>
+        <v>3.341</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.225</v>
+        <v>0.963</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.159</v>
+        <v>2.819</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.536</v>
+        <v>4.788</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.291</v>
+        <v>2.178</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.867</v>
+        <v>0.029</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.629</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>192.947</v>
+        <v>38.177</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>36.673</v>
+        <v>8.359</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.146</v>
+        <v>3.004</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.445</v>
+        <v>5.43</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.905</v>
+        <v>3.178</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.769</v>
+        <v>0.865</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>23.995</v>
+        <v>5.564</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.728</v>
+        <v>2.43</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.574</v>
+        <v>2.051</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.256</v>
+        <v>2.715</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.46</v>
+        <v>3.506</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.707</v>
+        <v>0.505</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>42.554</v>
+        <v>9.762</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.726</v>
+        <v>1.364</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.185</v>
+        <v>3.699</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45178.52777777778</v>
+        <v>44828.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.55</v>
+        <v>13.767</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.63</v>
+        <v>10.298</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.18</v>
+        <v>0.531</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>42.83</v>
+        <v>30.348</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.87</v>
+        <v>24.573</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.28</v>
+        <v>10.921</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>59.46</v>
+        <v>38.049</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.8</v>
+        <v>16.687</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.72</v>
+        <v>7.518</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.47</v>
+        <v>11.341</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.19</v>
+        <v>12.382</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.28</v>
+        <v>12.712</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.95</v>
+        <v>3.499</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.41</v>
+        <v>10.756</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.85</v>
+        <v>15.932</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.07</v>
+        <v>8.781000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.121</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.305</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>227.31</v>
+        <v>158.421</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>43.11</v>
+        <v>30.345</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.23</v>
+        <v>10.233</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.9</v>
+        <v>20.391</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.19</v>
+        <v>10.978</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.05</v>
+        <v>1.776</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>29.56</v>
+        <v>19.379</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.57</v>
+        <v>8.877000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.15</v>
+        <v>7.715</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.12</v>
+        <v>9.321999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.1</v>
+        <v>12.776</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.366</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>54.21</v>
+        <v>34.553</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.96</v>
+        <v>5.575</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.79</v>
+        <v>12.751</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44828.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_497.xlsx
+++ b/DATA_goal/Junction_Flooding_497.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,10 +468,10 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44828.54861111111</v>
+        <v>45178.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.29</v>
+        <v>9.686</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.735</v>
+        <v>6.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.124</v>
+        <v>2.907</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.827</v>
+        <v>21.429</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.423</v>
+        <v>15.753</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.979</v>
+        <v>7.426</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.643</v>
+        <v>21.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.329</v>
+        <v>12.148</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.541</v>
+        <v>5.042</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.443</v>
+        <v>6.422</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.279</v>
+        <v>8.574</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.076</v>
+        <v>9.294</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.423</v>
+        <v>2.529</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.072</v>
+        <v>7.895</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.872</v>
+        <v>10.528</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.514</v>
+        <v>7.369</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.001</v>
+        <v>0.826</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.386</v>
+        <v>112.771</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.712</v>
+        <v>21.717</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.121</v>
+        <v>7.288</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.552</v>
+        <v>13.637</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.645</v>
+        <v>7.423</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.823</v>
+        <v>1.536</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.314</v>
+        <v>12.849</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.973</v>
+        <v>6.437</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.721</v>
+        <v>5.959</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.589</v>
+        <v>6.92</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.435</v>
+        <v>9.375999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.091</v>
+        <v>2.459</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.771</v>
+        <v>19.236</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.187</v>
+        <v>3.642</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.45</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44828.55555555555</v>
+        <v>45178.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.034</v>
+        <v>3.593</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.183</v>
+        <v>2.541</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.185</v>
+        <v>1.234</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7.472</v>
+        <v>8.259</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.073</v>
+        <v>5.758</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.491</v>
+        <v>2.67</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.414</v>
+        <v>13.173</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.666</v>
+        <v>4.592</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.65</v>
+        <v>2.006</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.767</v>
+        <v>2.139</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.296</v>
+        <v>3.327</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.787</v>
+        <v>3.642</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.835</v>
+        <v>0.974</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.369</v>
+        <v>3.008</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.509</v>
+        <v>3.992</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.753</v>
+        <v>3.04</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.007</v>
+        <v>1.1</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.342</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>32.273</v>
+        <v>38.488</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.177</v>
+        <v>8.605</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>2.776</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.482</v>
+        <v>5.296</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.854</v>
+        <v>2.798</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.075</v>
+        <v>0.499</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.221</v>
+        <v>7.362</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.093</v>
+        <v>2.452</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.742</v>
+        <v>2.371</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.463</v>
+        <v>2.769</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.031</v>
+        <v>3.577</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.8169999999999999</v>
+        <v>1.098</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.843</v>
+        <v>12.673</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.06</v>
+        <v>1.293</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.383</v>
+        <v>3.473</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44828.5625</v>
+        <v>45178.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.623</v>
+        <v>16.633</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.661</v>
+        <v>12.403</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.199</v>
+        <v>1.271</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.430999999999999</v>
+        <v>36.537</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.265</v>
+        <v>29.489</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.951</v>
+        <v>12.958</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>10.496</v>
+        <v>46.834</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.401</v>
+        <v>20.304</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.005</v>
+        <v>9.093999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.152</v>
+        <v>12.975</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.626</v>
+        <v>14.674</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.341</v>
+        <v>15.628</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.963</v>
+        <v>4.225</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.819</v>
+        <v>13.159</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.788</v>
+        <v>18.536</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.178</v>
+        <v>11.291</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.029</v>
+        <v>0.867</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.629</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.177</v>
+        <v>192.947</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.359</v>
+        <v>36.673</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.004</v>
+        <v>12.146</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.43</v>
+        <v>24.445</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.178</v>
+        <v>12.905</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.865</v>
+        <v>1.769</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.564</v>
+        <v>23.995</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.43</v>
+        <v>10.728</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.051</v>
+        <v>9.574</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.715</v>
+        <v>11.256</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.506</v>
+        <v>15.46</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.505</v>
+        <v>0.707</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>9.762</v>
+        <v>42.554</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.364</v>
+        <v>6.726</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.699</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44828.56944444445</v>
+        <v>45178.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.767</v>
+        <v>19.55</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.298</v>
+        <v>14.63</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.531</v>
+        <v>1.18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30.348</v>
+        <v>42.83</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.573</v>
+        <v>34.87</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.921</v>
+        <v>15.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.049</v>
+        <v>59.46</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.687</v>
+        <v>23.8</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.518</v>
+        <v>10.72</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.341</v>
+        <v>15.47</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.382</v>
+        <v>17.19</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.712</v>
+        <v>18.28</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.499</v>
+        <v>4.95</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.756</v>
+        <v>15.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.932</v>
+        <v>21.85</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.781000000000001</v>
+        <v>13.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.121</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.305</v>
+        <v>0.67</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>158.421</v>
+        <v>227.31</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.345</v>
+        <v>43.11</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.233</v>
+        <v>14.23</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.391</v>
+        <v>28.9</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.978</v>
+        <v>15.19</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.776</v>
+        <v>2.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.379</v>
+        <v>29.56</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.877000000000001</v>
+        <v>12.57</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.715</v>
+        <v>11.15</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.321999999999999</v>
+        <v>13.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.776</v>
+        <v>18.1</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.366</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>34.553</v>
+        <v>54.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.575</v>
+        <v>7.96</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.751</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44828.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0</v>
+        <v>17.79</v>
       </c>
     </row>
   </sheetData>
